--- a/New Design/Completed/PATLA-027-023-019/Prefilled-Template_762997_10018-MeeshoTemplate.xlsx
+++ b/New Design/Completed/PATLA-027-023-019/Prefilled-Template_762997_10018-MeeshoTemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\E-Commerce\Dhruvil Meesho\Patla GIthub\patla\New Design\PATLA-027\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\E-Commerce\Dhruvil Meesho\Patla\patla\New Design\Completed\PATLA-027-023-019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082E9727-8311-445F-91CA-8450089FAF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463ACE2C-79B5-417F-8D3E-A6757E3DF662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -6230,43 +6230,10 @@
     <t>default</t>
   </si>
   <si>
-    <t>https://upload.meeshosupplyassets.com/cataloging/1740417701857/IMG-20250224-WA0044.jpg</t>
-  </si>
-  <si>
-    <t>Forword Fashion</t>
-  </si>
-  <si>
-    <t>https://upload.meeshosupplyassets.com/cataloging/1740418623267/IMG-20250224-WA0063.jpg</t>
-  </si>
-  <si>
-    <t>https://upload.meeshosupplyassets.com/cataloging/1740418623325/WhatsAppImage2025-02-23at12.06.19_34eb11cb.jpg</t>
-  </si>
-  <si>
-    <t>https://upload.meeshosupplyassets.com/cataloging/1740418661510/uxdko_512.jpg</t>
-  </si>
-  <si>
     <t>PATLA-027</t>
   </si>
   <si>
-    <t>https://upload.meeshosupplyassets.com/cataloging/1740418953105/IMG-20250224-WA0055.jpg</t>
-  </si>
-  <si>
-    <t>https://upload.meeshosupplyassets.com/cataloging/1740418953067/IMG-20250224-WA0061.jpg</t>
-  </si>
-  <si>
-    <t>https://upload.meeshosupplyassets.com/cataloging/1740418953089/IMG-20250224-WA0041.jpg</t>
-  </si>
-  <si>
     <t>PATLA-023</t>
-  </si>
-  <si>
-    <t>https://upload.meeshosupplyassets.com/cataloging/1740419142397/IMG-20250224-WA0054.jpg</t>
-  </si>
-  <si>
-    <t>https://upload.meeshosupplyassets.com/cataloging/1740419142383/IMG-20250224-WA0059.jpg</t>
-  </si>
-  <si>
-    <t>https://upload.meeshosupplyassets.com/cataloging/1740419142408/IMG-20250224-WA0031.jpg</t>
   </si>
   <si>
     <t>PATLA-019</t>
@@ -6326,6 +6293,39 @@
 raindrop crystal glass bangles
 one gram gold jewellery set new model
 jewellery set for women latest design fancy</t>
+  </si>
+  <si>
+    <t>Flute Fashion</t>
+  </si>
+  <si>
+    <t>https://upload.meeshosupplyassets.com/cataloging/1740679461798/IMG-20250224-WA0044.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.meeshosupplyassets.com/cataloging/1740679461815/WhatsAppImage2025-02-23at12.06.19_34eb11cb.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.meeshosupplyassets.com/cataloging/1740679461784/IMG-20250224-WA0063.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.meeshosupplyassets.com/cataloging/1740679521030/uxdko_512.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.meeshosupplyassets.com/cataloging/1740679570481/IMG-20250224-WA0055.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.meeshosupplyassets.com/cataloging/1740679570407/WhatsAppImage2025-02-23at12.06.18_c7fd5562.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.meeshosupplyassets.com/cataloging/1740679570423/IMG-20250224-WA0061.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.meeshosupplyassets.com/cataloging/1740679626643/IMG-20250224-WA0054.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.meeshosupplyassets.com/cataloging/1740679626658/IMG-20250224-WA0059.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.meeshosupplyassets.com/cataloging/1740679626592/IMG-20250224-WA0031.jpg</t>
   </si>
 </sst>
 </file>
@@ -6934,6 +6934,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6992,13 +6999,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7230,293 +7230,293 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="29.25" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="29"/>
     </row>
     <row r="2" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
     </row>
     <row r="4" spans="1:15" ht="7.5" customHeight="1">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="46"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="48"/>
     </row>
     <row r="5" spans="1:15" ht="7.5" customHeight="1">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="46"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="48"/>
     </row>
     <row r="6" spans="1:15" ht="39" customHeight="1">
-      <c r="A6" s="38"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="47"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="49"/>
     </row>
     <row r="7" spans="1:15" ht="8.25" customHeight="1">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="40" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="37"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="51.75" customHeight="1">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="39"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="41"/>
     </row>
     <row r="9" spans="1:15" ht="15" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="32"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="34"/>
     </row>
     <row r="10" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="37"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="46"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="48"/>
     </row>
     <row r="12" spans="1:15" ht="7.5" customHeight="1">
-      <c r="A12" s="44"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="46"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="48"/>
     </row>
     <row r="13" spans="1:15" ht="7.5" customHeight="1">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="46"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="48"/>
     </row>
     <row r="14" spans="1:15" ht="7.5" customHeight="1">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="46"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="48"/>
     </row>
     <row r="15" spans="1:15" ht="39.75" customHeight="1">
-      <c r="A15" s="50"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="52"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="54"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1"/>
     <row r="17" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="37"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="6" t="s">
@@ -7525,23 +7525,23 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1"/>
     <row r="20" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="37"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1">
       <c r="A21" s="6" t="s">
@@ -7555,23 +7555,23 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1"/>
     <row r="24" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="37"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1">
       <c r="A25" t="s">
@@ -7610,23 +7610,23 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1"/>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="35"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="37"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="A34" t="s">
@@ -7640,23 +7640,23 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1"/>
     <row r="37" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="35"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="37"/>
     </row>
     <row r="38" spans="1:15" ht="15.75" customHeight="1">
       <c r="A38" s="7" t="s">
@@ -7669,127 +7669,127 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="35"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="37"/>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="55"/>
+      <c r="O41" s="55"/>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A42" s="53"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="55"/>
+      <c r="O42" s="55"/>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A43" s="53"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="55"/>
+      <c r="N43" s="55"/>
+      <c r="O43" s="55"/>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A44" s="53"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="55"/>
+      <c r="O44" s="55"/>
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A45" s="53"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="55"/>
+      <c r="N45" s="55"/>
+      <c r="O45" s="55"/>
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A46" s="53"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="53"/>
-      <c r="O46" s="53"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="55"/>
+      <c r="O46" s="55"/>
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1"/>
     <row r="48" spans="1:15" ht="15.75" customHeight="1"/>
@@ -8787,8 +8787,8 @@
   <dimension ref="A1:AP1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="AL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR5" sqref="AR5"/>
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -8810,52 +8810,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="49.95" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>1629</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56" t="s">
         <v>1629</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="54"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
     </row>
     <row r="2" spans="1:42" ht="22.8">
       <c r="A2" s="9" t="s">
@@ -8873,25 +8873,25 @@
       <c r="E2" s="16" t="s">
         <v>1632</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="57" t="s">
         <v>1632</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="57" t="s">
         <v>1632</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="57" t="s">
         <v>1632</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="57" t="s">
         <v>1632</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="57" t="s">
         <v>1632</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="57" t="s">
         <v>1632</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="57" t="s">
         <v>1632</v>
       </c>
       <c r="M2" s="17" t="s">
@@ -9001,17 +9001,17 @@
       <c r="E3" s="10" t="s">
         <v>1639</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="58" t="s">
         <v>1640</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
       <c r="M3" s="10" t="s">
         <v>1642</v>
       </c>
@@ -9173,19 +9173,19 @@
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
-      <c r="D5" s="58" t="s">
-        <v>1697</v>
+      <c r="D5" s="25" t="s">
+        <v>1686</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>200</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="24">
-        <v>799</v>
+        <v>840</v>
       </c>
       <c r="H5" s="23">
         <f t="shared" ref="H5:H68" si="0">IF(ISBLANK(G5),"",G5+I5)</f>
-        <v>852</v>
+        <v>893</v>
       </c>
       <c r="I5">
         <f>IF(AND(NOT(ISBLANK(L5)),(J5=AF5)),L5,K5)</f>
@@ -9196,10 +9196,10 @@
         <v>53</v>
       </c>
       <c r="M5" s="24">
-        <v>789</v>
+        <v>830</v>
       </c>
       <c r="N5" s="24">
-        <v>899</v>
+        <v>930</v>
       </c>
       <c r="O5" s="24" t="s">
         <v>144</v>
@@ -9217,10 +9217,10 @@
         <v>527</v>
       </c>
       <c r="T5" s="24" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="U5" s="24" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="V5" s="24" t="s">
         <v>162</v>
@@ -9253,34 +9253,34 @@
         <v>140</v>
       </c>
       <c r="AF5" s="22" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AG5" s="24" t="s">
+        <v>1692</v>
+      </c>
+      <c r="AH5" s="24" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI5" s="24" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AJ5" s="25" t="s">
         <v>1683</v>
       </c>
-      <c r="AG5" s="24" t="s">
-        <v>1685</v>
-      </c>
-      <c r="AH5" s="24" t="s">
-        <v>1686</v>
-      </c>
-      <c r="AI5" s="24" t="s">
-        <v>1687</v>
-      </c>
-      <c r="AJ5" s="58" t="s">
-        <v>1688</v>
-      </c>
       <c r="AK5" s="24" t="s">
-        <v>1688</v>
-      </c>
-      <c r="AL5" s="58" t="s">
-        <v>1684</v>
+        <v>1683</v>
+      </c>
+      <c r="AL5" s="25" t="s">
+        <v>1690</v>
       </c>
       <c r="AM5" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="AN5" s="59" t="s">
-        <v>1700</v>
-      </c>
-      <c r="AO5" s="58" t="s">
-        <v>1684</v>
+      <c r="AN5" s="26" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AO5" s="25" t="s">
+        <v>1690</v>
       </c>
       <c r="AP5" s="24"/>
     </row>
@@ -9289,28 +9289,28 @@
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
       <c r="D6" s="24" t="s">
-        <v>1697</v>
+        <v>1686</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>228</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="24">
-        <v>799</v>
+        <v>840</v>
       </c>
       <c r="H6" s="23">
         <f t="shared" si="0"/>
-        <v>799</v>
+        <v>840</v>
       </c>
       <c r="I6" s="24"/>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
       <c r="L6" s="24"/>
       <c r="M6" s="24">
-        <v>789</v>
+        <v>830</v>
       </c>
       <c r="N6" s="24">
-        <v>899</v>
+        <v>930</v>
       </c>
       <c r="O6" s="24" t="s">
         <v>144</v>
@@ -9328,10 +9328,10 @@
         <v>527</v>
       </c>
       <c r="T6" s="24" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="U6" s="24" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="V6" s="24" t="s">
         <v>162</v>
@@ -9364,34 +9364,34 @@
         <v>140</v>
       </c>
       <c r="AF6" s="24" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AG6" s="24" t="s">
+        <v>1692</v>
+      </c>
+      <c r="AH6" s="24" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI6" s="24" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AJ6" s="25" t="s">
         <v>1683</v>
       </c>
-      <c r="AG6" s="24" t="s">
-        <v>1685</v>
-      </c>
-      <c r="AH6" s="24" t="s">
-        <v>1686</v>
-      </c>
-      <c r="AI6" s="24" t="s">
-        <v>1687</v>
-      </c>
-      <c r="AJ6" s="58" t="s">
-        <v>1688</v>
-      </c>
       <c r="AK6" s="24" t="s">
-        <v>1688</v>
+        <v>1683</v>
       </c>
       <c r="AL6" s="24" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="AM6" s="24" t="s">
         <v>141</v>
       </c>
       <c r="AN6" s="24" t="s">
-        <v>1700</v>
+        <v>1689</v>
       </c>
       <c r="AO6" s="24" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="AP6" s="24"/>
     </row>
@@ -9400,28 +9400,28 @@
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
       <c r="D7" s="24" t="s">
-        <v>1697</v>
+        <v>1686</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>240</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="24">
-        <v>799</v>
+        <v>840</v>
       </c>
       <c r="H7" s="23">
         <f t="shared" si="0"/>
-        <v>799</v>
+        <v>840</v>
       </c>
       <c r="I7" s="24"/>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24">
-        <v>789</v>
+        <v>830</v>
       </c>
       <c r="N7" s="24">
-        <v>899</v>
+        <v>930</v>
       </c>
       <c r="O7" s="24" t="s">
         <v>144</v>
@@ -9439,10 +9439,10 @@
         <v>527</v>
       </c>
       <c r="T7" s="24" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="U7" s="24" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="V7" s="24" t="s">
         <v>162</v>
@@ -9475,34 +9475,34 @@
         <v>140</v>
       </c>
       <c r="AF7" s="24" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AG7" s="24" t="s">
+        <v>1692</v>
+      </c>
+      <c r="AH7" s="24" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AI7" s="24" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AJ7" s="24" t="s">
         <v>1683</v>
       </c>
-      <c r="AG7" s="24" t="s">
-        <v>1685</v>
-      </c>
-      <c r="AH7" s="24" t="s">
-        <v>1686</v>
-      </c>
-      <c r="AI7" s="24" t="s">
-        <v>1687</v>
-      </c>
-      <c r="AJ7" s="24" t="s">
-        <v>1688</v>
-      </c>
       <c r="AK7" s="24" t="s">
-        <v>1688</v>
+        <v>1683</v>
       </c>
       <c r="AL7" s="24" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="AM7" s="24" t="s">
         <v>141</v>
       </c>
       <c r="AN7" s="24" t="s">
-        <v>1700</v>
+        <v>1689</v>
       </c>
       <c r="AO7" s="24" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="AP7" s="24"/>
     </row>
@@ -9510,29 +9510,29 @@
       <c r="A8" s="24"/>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
-      <c r="D8" s="58" t="s">
-        <v>1698</v>
+      <c r="D8" s="25" t="s">
+        <v>1687</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>200</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="24">
-        <v>799</v>
+        <v>840</v>
       </c>
       <c r="H8" s="23">
         <f t="shared" si="0"/>
-        <v>799</v>
+        <v>840</v>
       </c>
       <c r="I8" s="24"/>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24">
-        <v>789</v>
+        <v>830</v>
       </c>
       <c r="N8" s="24">
-        <v>899</v>
+        <v>930</v>
       </c>
       <c r="O8" s="24" t="s">
         <v>144</v>
@@ -9550,10 +9550,10 @@
         <v>527</v>
       </c>
       <c r="T8" s="24" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="U8" s="24" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="V8" s="24" t="s">
         <v>162</v>
@@ -9586,34 +9586,34 @@
         <v>140</v>
       </c>
       <c r="AF8" s="24" t="s">
-        <v>1689</v>
+        <v>1695</v>
       </c>
       <c r="AG8" s="24" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AH8" s="24" t="s">
+        <v>1697</v>
+      </c>
+      <c r="AI8" s="24" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AJ8" s="25" t="s">
+        <v>1684</v>
+      </c>
+      <c r="AK8" s="24" t="s">
+        <v>1684</v>
+      </c>
+      <c r="AL8" s="24" t="s">
         <v>1690</v>
-      </c>
-      <c r="AH8" s="24" t="s">
-        <v>1691</v>
-      </c>
-      <c r="AI8" s="24" t="s">
-        <v>1687</v>
-      </c>
-      <c r="AJ8" s="58" t="s">
-        <v>1692</v>
-      </c>
-      <c r="AK8" s="24" t="s">
-        <v>1692</v>
-      </c>
-      <c r="AL8" s="24" t="s">
-        <v>1684</v>
       </c>
       <c r="AM8" s="24" t="s">
         <v>141</v>
       </c>
       <c r="AN8" s="24" t="s">
-        <v>1700</v>
+        <v>1689</v>
       </c>
       <c r="AO8" s="24" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="AP8" s="24"/>
     </row>
@@ -9622,28 +9622,28 @@
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
       <c r="D9" s="24" t="s">
-        <v>1698</v>
+        <v>1687</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>228</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="24">
-        <v>799</v>
+        <v>840</v>
       </c>
       <c r="H9" s="23">
         <f t="shared" si="0"/>
-        <v>799</v>
+        <v>840</v>
       </c>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24">
-        <v>789</v>
+        <v>830</v>
       </c>
       <c r="N9" s="24">
-        <v>899</v>
+        <v>930</v>
       </c>
       <c r="O9" s="24" t="s">
         <v>144</v>
@@ -9661,10 +9661,10 @@
         <v>527</v>
       </c>
       <c r="T9" s="24" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="U9" s="24" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="V9" s="24" t="s">
         <v>162</v>
@@ -9697,34 +9697,34 @@
         <v>140</v>
       </c>
       <c r="AF9" s="24" t="s">
-        <v>1689</v>
+        <v>1695</v>
       </c>
       <c r="AG9" s="24" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AH9" s="24" t="s">
+        <v>1697</v>
+      </c>
+      <c r="AI9" s="24" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AJ9" s="24" t="s">
+        <v>1684</v>
+      </c>
+      <c r="AK9" s="24" t="s">
+        <v>1684</v>
+      </c>
+      <c r="AL9" s="24" t="s">
         <v>1690</v>
-      </c>
-      <c r="AH9" s="24" t="s">
-        <v>1691</v>
-      </c>
-      <c r="AI9" s="24" t="s">
-        <v>1687</v>
-      </c>
-      <c r="AJ9" s="24" t="s">
-        <v>1692</v>
-      </c>
-      <c r="AK9" s="24" t="s">
-        <v>1692</v>
-      </c>
-      <c r="AL9" s="24" t="s">
-        <v>1684</v>
       </c>
       <c r="AM9" s="24" t="s">
         <v>141</v>
       </c>
       <c r="AN9" s="24" t="s">
-        <v>1700</v>
+        <v>1689</v>
       </c>
       <c r="AO9" s="24" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="AP9" s="24"/>
     </row>
@@ -9733,28 +9733,28 @@
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
       <c r="D10" s="24" t="s">
-        <v>1698</v>
+        <v>1687</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>240</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="24">
-        <v>799</v>
+        <v>840</v>
       </c>
       <c r="H10" s="23">
         <f t="shared" si="0"/>
-        <v>799</v>
+        <v>840</v>
       </c>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
       <c r="M10" s="24">
-        <v>789</v>
+        <v>830</v>
       </c>
       <c r="N10" s="24">
-        <v>899</v>
+        <v>930</v>
       </c>
       <c r="O10" s="24" t="s">
         <v>144</v>
@@ -9772,10 +9772,10 @@
         <v>527</v>
       </c>
       <c r="T10" s="24" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="U10" s="24" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="V10" s="24" t="s">
         <v>162</v>
@@ -9808,34 +9808,34 @@
         <v>140</v>
       </c>
       <c r="AF10" s="24" t="s">
-        <v>1689</v>
+        <v>1695</v>
       </c>
       <c r="AG10" s="24" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AH10" s="24" t="s">
+        <v>1697</v>
+      </c>
+      <c r="AI10" s="24" t="s">
+        <v>1694</v>
+      </c>
+      <c r="AJ10" s="24" t="s">
+        <v>1684</v>
+      </c>
+      <c r="AK10" s="24" t="s">
+        <v>1684</v>
+      </c>
+      <c r="AL10" s="24" t="s">
         <v>1690</v>
-      </c>
-      <c r="AH10" s="24" t="s">
-        <v>1691</v>
-      </c>
-      <c r="AI10" s="24" t="s">
-        <v>1687</v>
-      </c>
-      <c r="AJ10" s="24" t="s">
-        <v>1692</v>
-      </c>
-      <c r="AK10" s="24" t="s">
-        <v>1692</v>
-      </c>
-      <c r="AL10" s="24" t="s">
-        <v>1684</v>
       </c>
       <c r="AM10" s="24" t="s">
         <v>141</v>
       </c>
       <c r="AN10" s="24" t="s">
-        <v>1700</v>
+        <v>1689</v>
       </c>
       <c r="AO10" s="24" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="AP10" s="24"/>
     </row>
@@ -9843,29 +9843,29 @@
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
-      <c r="D11" s="58" t="s">
-        <v>1699</v>
+      <c r="D11" s="25" t="s">
+        <v>1688</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>200</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="24">
-        <v>799</v>
+        <v>840</v>
       </c>
       <c r="H11" s="23">
         <f t="shared" si="0"/>
-        <v>799</v>
+        <v>840</v>
       </c>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24">
-        <v>789</v>
+        <v>830</v>
       </c>
       <c r="N11" s="24">
-        <v>899</v>
+        <v>930</v>
       </c>
       <c r="O11" s="24" t="s">
         <v>144</v>
@@ -9883,10 +9883,10 @@
         <v>527</v>
       </c>
       <c r="T11" s="24" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="U11" s="24" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="V11" s="24" t="s">
         <v>162</v>
@@ -9919,34 +9919,34 @@
         <v>140</v>
       </c>
       <c r="AF11" s="24" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
       <c r="AG11" s="24" t="s">
+        <v>1699</v>
+      </c>
+      <c r="AH11" s="24" t="s">
+        <v>1700</v>
+      </c>
+      <c r="AI11" s="24" t="s">
         <v>1694</v>
       </c>
-      <c r="AH11" s="24" t="s">
-        <v>1695</v>
-      </c>
-      <c r="AI11" s="24" t="s">
-        <v>1687</v>
-      </c>
-      <c r="AJ11" s="58" t="s">
-        <v>1696</v>
+      <c r="AJ11" s="25" t="s">
+        <v>1685</v>
       </c>
       <c r="AK11" s="24" t="s">
-        <v>1696</v>
+        <v>1685</v>
       </c>
       <c r="AL11" s="24" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="AM11" s="24" t="s">
         <v>141</v>
       </c>
       <c r="AN11" s="24" t="s">
-        <v>1700</v>
+        <v>1689</v>
       </c>
       <c r="AO11" s="24" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="AP11" s="24"/>
     </row>
@@ -9955,28 +9955,28 @@
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24" t="s">
-        <v>1699</v>
+        <v>1688</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>228</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="24">
-        <v>799</v>
+        <v>840</v>
       </c>
       <c r="H12" s="23">
         <f t="shared" si="0"/>
-        <v>799</v>
+        <v>840</v>
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24">
-        <v>789</v>
+        <v>830</v>
       </c>
       <c r="N12" s="24">
-        <v>899</v>
+        <v>930</v>
       </c>
       <c r="O12" s="24" t="s">
         <v>144</v>
@@ -9994,10 +9994,10 @@
         <v>527</v>
       </c>
       <c r="T12" s="24" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="U12" s="24" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="V12" s="24" t="s">
         <v>162</v>
@@ -10030,34 +10030,34 @@
         <v>140</v>
       </c>
       <c r="AF12" s="24" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
       <c r="AG12" s="24" t="s">
+        <v>1699</v>
+      </c>
+      <c r="AH12" s="24" t="s">
+        <v>1700</v>
+      </c>
+      <c r="AI12" s="24" t="s">
         <v>1694</v>
       </c>
-      <c r="AH12" s="24" t="s">
-        <v>1695</v>
-      </c>
-      <c r="AI12" s="24" t="s">
-        <v>1687</v>
-      </c>
       <c r="AJ12" s="24" t="s">
-        <v>1696</v>
+        <v>1685</v>
       </c>
       <c r="AK12" s="24" t="s">
-        <v>1696</v>
+        <v>1685</v>
       </c>
       <c r="AL12" s="24" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="AM12" s="24" t="s">
         <v>141</v>
       </c>
       <c r="AN12" s="24" t="s">
-        <v>1700</v>
+        <v>1689</v>
       </c>
       <c r="AO12" s="24" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="AP12" s="24"/>
     </row>
@@ -10066,28 +10066,28 @@
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
       <c r="D13" s="24" t="s">
-        <v>1699</v>
+        <v>1688</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>240</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="24">
-        <v>799</v>
+        <v>840</v>
       </c>
       <c r="H13" s="23">
         <f t="shared" si="0"/>
-        <v>799</v>
+        <v>840</v>
       </c>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
       <c r="M13" s="24">
-        <v>789</v>
+        <v>830</v>
       </c>
       <c r="N13" s="24">
-        <v>899</v>
+        <v>930</v>
       </c>
       <c r="O13" s="24" t="s">
         <v>144</v>
@@ -10105,10 +10105,10 @@
         <v>527</v>
       </c>
       <c r="T13" s="24" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="U13" s="24" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="V13" s="24" t="s">
         <v>162</v>
@@ -10141,34 +10141,34 @@
         <v>140</v>
       </c>
       <c r="AF13" s="24" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
       <c r="AG13" s="24" t="s">
+        <v>1699</v>
+      </c>
+      <c r="AH13" s="24" t="s">
+        <v>1700</v>
+      </c>
+      <c r="AI13" s="24" t="s">
         <v>1694</v>
       </c>
-      <c r="AH13" s="24" t="s">
-        <v>1695</v>
-      </c>
-      <c r="AI13" s="24" t="s">
-        <v>1687</v>
-      </c>
       <c r="AJ13" s="24" t="s">
-        <v>1696</v>
+        <v>1685</v>
       </c>
       <c r="AK13" s="24" t="s">
-        <v>1696</v>
+        <v>1685</v>
       </c>
       <c r="AL13" s="24" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="AM13" s="24" t="s">
         <v>141</v>
       </c>
       <c r="AN13" s="24" t="s">
-        <v>1700</v>
+        <v>1689</v>
       </c>
       <c r="AO13" s="24" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="AP13" s="24"/>
     </row>
@@ -10189,7 +10189,7 @@
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
       <c r="M14" s="24" t="str">
-        <f t="shared" ref="M5:M68" si="1">IF(G14&gt;23,G14-23,"")</f>
+        <f t="shared" ref="M14:M68" si="1">IF(G14&gt;23,G14-23,"")</f>
         <v/>
       </c>
       <c r="N14" s="24"/>
@@ -57731,7 +57731,7 @@
       <c r="F965" s="23"/>
       <c r="G965" s="24"/>
       <c r="H965" s="23" t="str">
-        <f t="shared" ref="H965:H1028" si="30">IF(ISBLANK(G965),"",G965+I965)</f>
+        <f t="shared" ref="H965:H1000" si="30">IF(ISBLANK(G965),"",G965+I965)</f>
         <v/>
       </c>
       <c r="I965" s="24"/>
@@ -59531,7 +59531,7 @@
     <mergeCell ref="F3:L3"/>
   </mergeCells>
   <phoneticPr fontId="35" type="noConversion"/>
-  <dataValidations xWindow="489" yWindow="681" count="7">
+  <dataValidations xWindow="1488" yWindow="565" count="7">
     <dataValidation type="textLength" allowBlank="1" showErrorMessage="1" errorTitle="Error" error="Text length should be less than 10000 characters" sqref="AN5:AO309 AF5:AL309 T5:U309 B5:D309" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
       <formula2>10000</formula2>
@@ -59584,7 +59584,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="489" yWindow="681" count="16">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="1488" yWindow="565" count="16">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Please select a value from the dropdown only" promptTitle="Hint key" prompt="Please select a value from the dropdown only" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>'Validation Sheet'!$E$3:$E$13</xm:f>
@@ -59712,52 +59712,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="49.95" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>1629</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56" t="s">
         <v>1629</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="54"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
     </row>
     <row r="2" spans="1:42" ht="22.8">
       <c r="A2" s="9" t="s">
@@ -59775,25 +59775,25 @@
       <c r="E2" s="11" t="s">
         <v>1632</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="59" t="s">
         <v>1632</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="59" t="s">
         <v>1632</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="59" t="s">
         <v>1632</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="59" t="s">
         <v>1632</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="59" t="s">
         <v>1632</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="K2" s="59" t="s">
         <v>1632</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="L2" s="59" t="s">
         <v>1632</v>
       </c>
       <c r="M2" s="12" t="s">
@@ -59903,17 +59903,17 @@
       <c r="E3" s="10" t="s">
         <v>1639</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="58" t="s">
         <v>1640</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
       <c r="M3" s="10" t="s">
         <v>1642</v>
       </c>
